--- a/Marketing/duke.roomme.xlsx
+++ b/Marketing/duke.roomme.xlsx
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">

--- a/Marketing/duke.roomme.xlsx
+++ b/Marketing/duke.roomme.xlsx
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">

--- a/Marketing/duke.roomme.xlsx
+++ b/Marketing/duke.roomme.xlsx
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">

--- a/Marketing/duke.roomme.xlsx
+++ b/Marketing/duke.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -448,1607 +436,1607 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bopgroff</t>
+          <t>muskaan_toshniwal</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>justinp495</t>
+          <t>aaditmital</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ameliaskena</t>
+          <t>willsunn63</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zheng__lily</t>
+          <t>_annaaxu</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jamie.kurzer</t>
+          <t>julia_namanzi</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>annabelle_dy</t>
+          <t>mxnny.serrano</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>katie.li_</t>
+          <t>_hannahjiang</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>luminatagliaferri</t>
+          <t>ali.pfaff</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eli.und3rwood</t>
+          <t>jhongmin__</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cassiieekao</t>
+          <t>k_yuan1</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mekhipattersonn</t>
+          <t>katherine._.he</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mehak.rajoria</t>
+          <t>caroline_gilman1705</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>naomihscott</t>
+          <t>elizabethfein3</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sophia_zhang.2</t>
+          <t>bopgroff</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>_mxky.laa_</t>
+          <t>sanjana.sank</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>alexzarboulas</t>
+          <t>lucaslin9359</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jjordan.wood</t>
+          <t>yasharma20k</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>camron.poe</t>
+          <t>ernie.hdz</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rodrigo.amare</t>
+          <t>james_setty_</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nicolebeltran.t</t>
+          <t>fayeblade69</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>alvin006</t>
+          <t>radams1470</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>_sarthakd</t>
+          <t>ryanrubin29</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>chloe.peyton</t>
+          <t>kuzigoora</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sarahy1m</t>
+          <t>alexiacrisologo</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>anisa.m.i</t>
+          <t>sophie.kane3</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>calebdorris11</t>
+          <t>sahilp1134</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>yifei_wang991</t>
+          <t>zach_m15</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>spence_cox</t>
+          <t>trinityfsavage</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ana_despa</t>
+          <t>graciegarretson</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>alexscanlon3</t>
+          <t>gabrielle.t.douglas</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lukemalloryy</t>
+          <t>ava_wick</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ninaganeshan</t>
+          <t>hartyoung2004</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ximena__sa</t>
+          <t>d.vya_ch</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pinarvaras</t>
+          <t>maya.mishanezroni</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>larajk19</t>
+          <t>_kkevin_gu</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sonny.werther</t>
+          <t>amalierseth</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fernando_q7</t>
+          <t>arya_.kumar</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jack.ringel</t>
+          <t>luca_tricoci</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>arshaanhsayed</t>
+          <t>pzheng111</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>laurelhawkinss</t>
+          <t>maxbzn34</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cbiswasss</t>
+          <t>kyliepollack</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_emilyzou</t>
+          <t>keekeevenkatesh</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>darren.li003</t>
+          <t>maame.wednesday</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kylie.gancos</t>
+          <t>simpandeyy</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sahilp1134</t>
+          <t>_annacarpenter</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>alw.aysdasia</t>
+          <t>duckyipad</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>anushkakumarr</t>
+          <t>whynoteverything28</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>noahhtt</t>
+          <t>kavin.s23</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>awesomehanlin</t>
+          <t>zhaow04</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cami.enez</t>
+          <t>bellarontiris</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>nguyen.nwhen</t>
+          <t>_ava_littman</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pdr.tanya</t>
+          <t>rjleticinha_</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>monica.rashkov</t>
+          <t>leo.m.hu</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>rywu05</t>
+          <t>kellydotnet</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>victoriafengg</t>
+          <t>jojohongg</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>earthtokemi</t>
+          <t>zackmahmud</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>charliemking</t>
+          <t>bowenjiang26</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>oanadjibom</t>
+          <t>rywu05</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>emiilyylin</t>
+          <t>scottgoodove</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>_angelaxiong</t>
+          <t>andyhyunko</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>kevin.chafloque</t>
+          <t>mills.howell</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bellarontiris</t>
+          <t>pkotapati57</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>hey.its._.olivia</t>
+          <t>laurakammenou</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>lyndseyfsmith</t>
+          <t>zoe_meadowss</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>stepheneshafer</t>
+          <t>yabesraewnetu</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>angie_anissa03</t>
+          <t>chloe.peyton</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>donaldpritzker</t>
+          <t>victoriawee</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>clara.belle48</t>
+          <t>markgikas</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jayokoro</t>
+          <t>amareswierc</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>caraeeaton</t>
+          <t>alissawuu</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>runzimaaa</t>
+          <t>lirockyzhang</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ananya.m_</t>
+          <t>edorrestein</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>caroline_gilman1705</t>
+          <t>annabelle_dy</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>milliemakk</t>
+          <t>lexi.magnano</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ella_etchandy</t>
+          <t>caro1inezhang</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>kiera.friedman</t>
+          <t>lou_dog73</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>janetmengg</t>
+          <t>harrickjeffrey</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>danielsuh05</t>
+          <t>emma.bbennett</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>xo_sanoe_xo</t>
+          <t>v.drolet</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>markgikas</t>
+          <t>og.demetri.__</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>lisazhaao</t>
+          <t>jeffrey.bohrer</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>jamesmyae04</t>
+          <t>katherine.ciro</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>_sionchang</t>
+          <t>danielmeharii</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>eve.1ynz</t>
+          <t>pameladavidson4</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>rylee6_21</t>
+          <t>nguyen.nwhen</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>chelsearclarke</t>
+          <t>taylor.reaaa</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>kavin.s23</t>
+          <t>mia.minestrella</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>shivanigvyas</t>
+          <t>gabecooper_11</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>y.sunnyzhu</t>
+          <t>whaleprinter</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>_your_hades</t>
+          <t>elle.balle</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>annienam05</t>
+          <t>jackcarreyr</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mya_booth</t>
+          <t>marlee.bland</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>edenraviv_</t>
+          <t>alikalo05</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>char.sut</t>
+          <t>rsnyper</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>hannahrothfeld</t>
+          <t>cassidy_bruno</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>jackiepark_</t>
+          <t>olimcco25</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>victoriawee</t>
+          <t>lameesle</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mia_kaarls</t>
+          <t>jannawaang</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>heeyitszey</t>
+          <t>emmar_fulton</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ryanrubin29</t>
+          <t>nicolebeltran.t</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>bigbenben28</t>
+          <t>_sionchang</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>vish.hanu</t>
+          <t>zach.gor</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>tessakawall</t>
+          <t>gjanish_87</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>jenniferpetra23</t>
+          <t>maderacll</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9ayayron</t>
+          <t>jhesny</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>mwang886</t>
+          <t>graceyabernethy</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>angie.huang_</t>
+          <t>_emilyzou</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>maellakoffi</t>
+          <t>jayokoro</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>reyantshariff</t>
+          <t>iamkingck</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>jeslyn.gao</t>
+          <t>arroheater</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>lindsay.hausman</t>
+          <t>wenwenli682</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>fayeblade69</t>
+          <t>kevin_zheng05</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>jamessmerritt</t>
+          <t>tting_li_</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>albertli93</t>
+          <t>jjordan.wood</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>duckyipad</t>
+          <t>jjackjohnston_</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>kellyshahu</t>
+          <t>_mxky.laa_</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>jake_borkat12</t>
+          <t>dylanlinton_</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>alana.j.w</t>
+          <t>n._osheroff</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>nitinnag05</t>
+          <t>ryan.yu22</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>yasharma20k</t>
+          <t>meghan.pasala</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>zach_m15</t>
+          <t>sasha.rhee</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sarayukodaliiii</t>
+          <t>nitinnag05</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>alicesg_</t>
+          <t>helloames</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>alexander._bogachev</t>
+          <t>mariaadelaney</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>canaansallesspar</t>
+          <t>zofia.chmiel</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>the_charlie_chen</t>
+          <t>low_key_always</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>owengriffiths_</t>
+          <t>maya9.03</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>avery_felix</t>
+          <t>nawra.roya</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>caroline.gallagher</t>
+          <t>hangila.mariama</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>kuzigoora</t>
+          <t>scarlettsimnz</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>maddiesiebeneck</t>
+          <t>jeetikhurana</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>raniazfarah</t>
+          <t>dilwegjp</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>yubraj.bhandari.923</t>
+          <t>slammy.jo</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>olliestern_</t>
+          <t>karismalavana</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>_sophieschwartz</t>
+          <t>wanyuzhang_00</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>declan_hall10</t>
+          <t>kieraclemens</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sanchezayssa</t>
+          <t>edenraviv_</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>kechun_wu</t>
+          <t>sophialin1124</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>eve.rsurratt</t>
+          <t>avantika__chopra</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>chandlerchavasse_</t>
+          <t>heberford</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>fisher_mallon</t>
+          <t>omar_kjamal</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>mxnny.serrano</t>
+          <t>susan_chemmanoor</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jackmunson</t>
+          <t>aaronwang9599</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>cathy_y567</t>
+          <t>vriddhi.goenka</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>danielmeharii</t>
+          <t>sharondxng</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ula.fu</t>
+          <t>niltonito</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>sonny_daze1</t>
+          <t>justinp495</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>tinaxtqian</t>
+          <t>jing_jane</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>_ycchen</t>
+          <t>asample406</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>cobelton</t>
+          <t>anna.brusoe</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>rendonkuykendall</t>
+          <t>_bradleyb._</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>willsunn63</t>
+          <t>s.k.y.e._.1</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lxrochaa</t>
+          <t>salvadorpadillakatz</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>bethany.akinola</t>
+          <t>alicesg_</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>harrickjeffrey</t>
+          <t>gonmymind_</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>susan_chemmanoor</t>
+          <t>samu_orellana</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>gracerendino</t>
+          <t>lukemergott</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>katherine._.he</t>
+          <t>narayanan.sundaresan23</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>anthonyjlotruglio</t>
+          <t>sbatra1910</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>sophie.pentz</t>
+          <t>lia_lapidot</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ansmarsh</t>
+          <t>avyry</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2046,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>sivannemirof</t>
+          <t>matias_zac7</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2056,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>christinaazhng</t>
+          <t>marcus_weiler_</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2066,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>edorrestein</t>
+          <t>ani_lerner</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2076,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ninac.alves</t>
+          <t>alvin006</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2086,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ricky_j711</t>
+          <t>nishkadalal</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2096,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>_hannahjiang</t>
+          <t>elladora_5</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2106,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>marie_timko</t>
+          <t>daniel_kydc</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2116,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>eth.nchn</t>
+          <t>karen_aber</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2126,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>graceyabernethy</t>
+          <t>alexlong_lax</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2136,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>kiran_m2023</t>
+          <t>neo.best_</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2146,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>william_abelliam</t>
+          <t>williamchen05</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2156,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>evanhwen</t>
+          <t>navya_kan</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2166,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>whynoteverything28</t>
+          <t>luce_weiyh</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2176,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>kyle.burgessnc</t>
+          <t>gianna_zheng</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2186,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>og.demetri.__</t>
+          <t>brycie_1021</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2196,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>helloliane_</t>
+          <t>renewwestdurham</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2206,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>_nureldin</t>
+          <t>beyoncedeanda2004</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2216,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>akshayamohan_</t>
+          <t>kellydotcom</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2226,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>br8kie</t>
+          <t>_kaylynzhong</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2236,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>julia_healey_parera</t>
+          <t>jack.hirsh</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2246,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>annamarie.ortwein</t>
+          <t>julia_healey_parera</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2256,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>paulhletkoo</t>
+          <t>kechun_wu</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2266,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>katie_maddock</t>
+          <t>all.kib</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2276,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>dhruva.09</t>
+          <t>catherinereid8</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2286,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>monica.shhhh</t>
+          <t>katlzhng</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2296,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>lizavetaslootsk</t>
+          <t>izzyjia</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2306,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>graciegarretson</t>
+          <t>awesomehanlin</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2316,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>dishih.27</t>
+          <t>hannahrothfeld</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2326,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>kevin_zheng05</t>
+          <t>diegoycge</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2336,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>maggieyngg</t>
+          <t>lil_weisz</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2346,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>justingreenberg_</t>
+          <t>rohil.watwe</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2356,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>yasmine__rahman</t>
+          <t>jdonthedon</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2366,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>gloomket</t>
+          <t>_mackenziehoey</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2376,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>iperalta_98</t>
+          <t>kevin.sun.hi</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2386,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>dadou_thea</t>
+          <t>amranhudda</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2396,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>_donaldtomlin_</t>
+          <t>carol_schwartz</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2428,7 +2416,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>mo.zzz.1</t>
+          <t>kellyshahu</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2426,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>gabecooper_11</t>
+          <t>msj_will_keep_laughing</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2436,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>carolinem.25</t>
+          <t>mirandali_</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2446,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>jack.hirsh</t>
+          <t>laurelhawkinss</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2456,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>gracee.wangg</t>
+          <t>arinaggarwal1</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2466,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>rcusick3749</t>
+          <t>sophie.ciute</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2476,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>pacomiles</t>
+          <t>alilevyyy</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2486,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>artemis.diana._</t>
+          <t>sashaapolakov</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2496,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>_annacarpenter</t>
+          <t>albertli93</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2506,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>christian.linen</t>
+          <t>lukemalloryy</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2516,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>zackmahmud</t>
+          <t>kiran_m2023</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2526,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>keekeevenkatesh</t>
+          <t>macbrooks113</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2536,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>kanthim_</t>
+          <t>jamessmerritt</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2546,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>bowenjiang26</t>
+          <t>charliemking</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2556,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>alissawuu</t>
+          <t>ula.fu</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2566,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>gracethrowerr</t>
+          <t>ximena__sa</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2576,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>samwerts19</t>
+          <t>paulhletkoo</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2586,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>avyry</t>
+          <t>christatwyman</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2596,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>contrapositiveofapanda</t>
+          <t>evanbrown829</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2606,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>arinaggarwal1</t>
+          <t>totally_not_harris</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2616,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>_dmarcheli_</t>
+          <t>atomiiw</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2626,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>maria.silvaggio</t>
+          <t>eve.1ynz</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2636,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>dylan_kessler_</t>
+          <t>_gigiquin_</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2646,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>yabesraewnetu</t>
+          <t>michellehsiung_</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2656,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>nolanzeng</t>
+          <t>brady_gouin</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2666,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>lia_lapidot</t>
+          <t>jphyun2019</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2676,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>aaronwang9599</t>
+          <t>ariona_millerr</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2686,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>maya9.03</t>
+          <t>heeyitszey</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2696,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>srrah_t</t>
+          <t>carls.elyse</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2706,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>gabrielle.t.douglas</t>
+          <t>ella_wanqianq</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2716,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>maame.wednesday</t>
+          <t>monica.rashkov</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2726,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>aly_guard</t>
+          <t>ewan_dignon</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2736,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>muskaan_toshniwal</t>
+          <t>aaron.andino</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2746,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>luce_weiyh</t>
+          <t>tallycoulter</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2756,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ilanakmizrahi</t>
+          <t>nolanzeng</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2766,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>k_ana122</t>
+          <t>yumimizobuchi</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2776,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>juliaszhu</t>
+          <t>raymond_adams27</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2786,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>et_chavis</t>
+          <t>ameliaskena</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2796,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>amyhuanng</t>
+          <t>dishih.27</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2806,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>tshirtbags</t>
+          <t>maxli_maxli</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2816,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>rithikaxsaravanan</t>
+          <t>blakecegelka</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2826,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>katherine.ciro</t>
+          <t>ellajohnsss</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2836,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>wsn_keeper</t>
+          <t>sahana_sreeram</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2846,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>_kaylaliang</t>
+          <t>dana_brooksss</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2856,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>olimcco25</t>
+          <t>meera.lokur</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2866,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>romygreenwald</t>
+          <t>lkim157</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2876,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>arlaragun</t>
+          <t>katie.li_</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2886,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>lilly_gessner</t>
+          <t>matt.lutes</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2896,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>robin.koshelev</t>
+          <t>arthur_gwozdz</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2906,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>mills.howell</t>
+          <t>_dmarcheli_</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2916,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>kaylee.matteis</t>
+          <t>caraeeaton</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2926,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>emmar_fulton</t>
+          <t>anikethk705</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2936,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>sillytilli33</t>
+          <t>siddujand</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2946,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>aaron.andino</t>
+          <t>nikkinaq</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2956,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>macbrooks113</t>
+          <t>conrad__bennett</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2966,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ziang_gao0520</t>
+          <t>akshayamohan_</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2976,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>maya.singla42</t>
+          <t>camron.poe</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2986,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>aliciaogliari</t>
+          <t>carlyheslop_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +2996,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>jjackjohnston_</t>
+          <t>nilay.360</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3006,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>peter.fitz14</t>
+          <t>hvnnahw</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3016,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>tamish_agarwal</t>
+          <t>siddarthdas5</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3026,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>mia.minestrella</t>
+          <t>mishaaganin5</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3036,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>_maestro.deldesastro</t>
+          <t>brockbenton99</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3046,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>d0hyunkim</t>
+          <t>adam.perez__</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3056,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>luca_tricoci</t>
+          <t>evabonde04</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3066,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>laurakammenou</t>
+          <t>gab_josephine</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3076,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>sabo_jack</t>
+          <t>stepheneshafer</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3086,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>natalie.olsen._</t>
+          <t>kenachugs</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3096,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>wanyuzhang_00</t>
+          <t>carlie.scheer</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3106,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>diegoycge</t>
+          <t>meredith.beatty</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3116,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>zhariah2004</t>
+          <t>carsonisneat</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3126,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ryan.bullock</t>
+          <t>jamie.kurzer</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3136,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>antonio.drakes</t>
+          <t>sarah_tandon</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3146,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>lily.jordaan</t>
+          <t>rohiitsuresh</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3156,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>marielle._7</t>
+          <t>lillymoellerr</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3166,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>evabonde04</t>
+          <t>maellakoffi</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3176,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>jo_na_than_</t>
+          <t>monica.shhhh</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3186,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>julianagates_</t>
+          <t>tatummckinnis</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3196,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>isabel_davis05</t>
+          <t>sopheeedav</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3206,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>moooooayad</t>
+          <t>_your_hades</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3216,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>bria.monett</t>
+          <t>pranavvhooda</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3226,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>jeffejefehuan</t>
+          <t>ebulan23</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3236,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>certifieddogaty</t>
+          <t>ros_seez</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3246,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>therealandykatz</t>
+          <t>he.jungle</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3256,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>amaris_wph</t>
+          <t>contrapositiveofapanda</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3266,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>jameswang868</t>
+          <t>j_k.o.17</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3276,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>kinseyalllen</t>
+          <t>evlsrm</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3286,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>jhongmin__</t>
+          <t>anika.suman</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3296,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>danielkye0320</t>
+          <t>zhariah2004</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3306,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>misterbackes</t>
+          <t>catherine_ramich</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3316,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>lizzzzzzhy</t>
+          <t>andrew_myerson</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3326,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>siddarthdas5</t>
+          <t>they.ad0re.kiki</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3336,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>anikethk705</t>
+          <t>allielulov</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3346,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ianzhang0510</t>
+          <t>janetmengg</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3356,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>athmika_krishnan_</t>
+          <t>nathangaviser</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3366,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>soojinnyl</t>
+          <t>judy_o119</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3376,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>lil_weisz</t>
+          <t>mmichaelx_x</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3386,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>nathangaviser</t>
+          <t>milliemakk</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3396,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>iemilyyou</t>
+          <t>archittamboli</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3406,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>marianding_</t>
+          <t>farvinakmal</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3416,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>_.jn0625</t>
+          <t>anushkakumarr</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3426,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>annie.duu</t>
+          <t>alexscanlon3</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3436,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>evlsrm</t>
+          <t>raechel.wu</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3446,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>thenehashukla</t>
+          <t>sofiat.rivera</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3456,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>kara.bivens9</t>
+          <t>sabo_jack</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3466,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>guanyi.chen.1257</t>
+          <t>zacharylevy99</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3476,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>sare_koruk</t>
+          <t>stephenharris_7</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3486,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>leonotleon</t>
+          <t>rebeccagrace05</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3496,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ariona_millerr</t>
+          <t>k_ana122</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3506,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>jing_jane</t>
+          <t>ursulabrownn</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3516,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>sashaapolakov</t>
+          <t>mia.edim</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3526,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>aubreybehling</t>
+          <t>fernando_q7</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3536,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>alexatlas1</t>
+          <t>zheng__lily</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3546,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>andrew019_</t>
+          <t>luis.xxpl</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3556,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>_bellahorne_</t>
+          <t>lizzzzzzhy</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3566,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>michellevoicuu</t>
+          <t>caroline.mcl</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3576,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>zach.gor</t>
+          <t>certifieddogaty</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3586,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>jeffrey.bohrer</t>
+          <t>yashsingam</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3596,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>tiannabellsantos</t>
+          <t>maddiesiebeneck</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3606,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>sarah_tandon</t>
+          <t>sillytilli33</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3616,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>izzyjia</t>
+          <t>croce.christopher</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3626,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>kalee04_</t>
+          <t>sarahjane.schulze</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3636,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>janieneavin</t>
+          <t>pacomiles</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3646,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>colin.miley19</t>
+          <t>saanvees</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3656,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>elizabethfein3</t>
+          <t>zacmendelsohn</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3666,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>shelly_xh6</t>
+          <t>talisigal</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3676,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>sashanikiforov_</t>
+          <t>lisazhaao</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3686,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>benjaminagreene</t>
+          <t>clara.belle48</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3696,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>lawrence.clw</t>
+          <t>_angelachen__</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3706,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>meredith.beatty</t>
+          <t>guanyi.chen.1257</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3716,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>vedantcpatel</t>
+          <t>ella.jacobs5</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3726,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>_kkevin_gu</t>
+          <t>daniel.younn</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3736,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>maderacll</t>
+          <t>marteenasubiaaa</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,250 +3746,10 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>arujbansal</t>
+          <t>_isabellaarango</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>ella.gruenstein</t>
-        </is>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>dylanlinton_</t>
-        </is>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>chelseanbrown09</t>
-        </is>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>abdisalvo</t>
-        </is>
-      </c>
-      <c r="B337" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>ana8311cr</t>
-        </is>
-      </c>
-      <c r="B338" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>whaleprinter</t>
-        </is>
-      </c>
-      <c r="B339" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>logan.fite</t>
-        </is>
-      </c>
-      <c r="B340" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>http.samia_</t>
-        </is>
-      </c>
-      <c r="B341" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>meera.lokur</t>
-        </is>
-      </c>
-      <c r="B342" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>maggiemcginniss</t>
-        </is>
-      </c>
-      <c r="B343" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>_kaylynzhong</t>
-        </is>
-      </c>
-      <c r="B344" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>kevin.sun.hi</t>
-        </is>
-      </c>
-      <c r="B345" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>jackcarreyr</t>
-        </is>
-      </c>
-      <c r="B346" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>helloames</t>
-        </is>
-      </c>
-      <c r="B347" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>ernie.hdz</t>
-        </is>
-      </c>
-      <c r="B348" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>they.ad0re.kiki</t>
-        </is>
-      </c>
-      <c r="B349" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>mpowicki</t>
-        </is>
-      </c>
-      <c r="B350" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>leo.m.hu</t>
-        </is>
-      </c>
-      <c r="B351" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>juliablack246</t>
-        </is>
-      </c>
-      <c r="B352" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>luis.xxpl</t>
-        </is>
-      </c>
-      <c r="B353" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>kristina.kug_</t>
-        </is>
-      </c>
-      <c r="B354" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>harsha.raj7</t>
-        </is>
-      </c>
-      <c r="B355" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>christian.testa1504</t>
-        </is>
-      </c>
-      <c r="B356" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>margaret_berei</t>
-        </is>
-      </c>
-      <c r="B357" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/duke.roomme.xlsx
+++ b/Marketing/duke.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -436,1307 +448,1307 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>muskaan_toshniwal</t>
+          <t>rebeccagrace05</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aaditmital</t>
+          <t>navya.gautam</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>willsunn63</t>
+          <t>myiafolsruiz</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_annaaxu</t>
+          <t>ale.pena_</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>julia_namanzi</t>
+          <t>vish.hanu</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mxnny.serrano</t>
+          <t>alissawuu</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>_hannahjiang</t>
+          <t>marianding_</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ali.pfaff</t>
+          <t>arinaggarwal1</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jhongmin__</t>
+          <t>davidaxon</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>k_yuan1</t>
+          <t>aaron.andino</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>katherine._.he</t>
+          <t>paulhletkoo</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>caroline_gilman1705</t>
+          <t>daniel.younn</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>elizabethfein3</t>
+          <t>benjaminagreene</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bopgroff</t>
+          <t>lucas_sher15</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sanjana.sank</t>
+          <t>amyhuanng</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lucaslin9359</t>
+          <t>_ange1achen</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>yasharma20k</t>
+          <t>albertli93</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ernie.hdz</t>
+          <t>ninaganeshan</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>james_setty_</t>
+          <t>b.kat.johnson</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fayeblade69</t>
+          <t>izzymamikunian</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>radams1470</t>
+          <t>emmathehuman</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ryanrubin29</t>
+          <t>dudeitznaomi</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kuzigoora</t>
+          <t>gonmymind_</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>alexiacrisologo</t>
+          <t>zariawilli</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sophie.kane3</t>
+          <t>bowenjkim_</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sahilp1134</t>
+          <t>matt.lutes</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>zach_m15</t>
+          <t>gavin8oro</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>trinityfsavage</t>
+          <t>kyledlovejoy</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>graciegarretson</t>
+          <t>alexxhoffmannn</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>gabrielle.t.douglas</t>
+          <t>heeyitszey</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ava_wick</t>
+          <t>kathomaaa</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hartyoung2004</t>
+          <t>maddiesiebeneck</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>d.vya_ch</t>
+          <t>amyduan_23</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>maya.mishanezroni</t>
+          <t>trinityfsavage</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>_kkevin_gu</t>
+          <t>savannah_goveia</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>amalierseth</t>
+          <t>laurensoobrian</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>arya_.kumar</t>
+          <t>jack.regan.10</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>luca_tricoci</t>
+          <t>conrad_qu</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pzheng111</t>
+          <t>ananya.m_</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>maxbzn34</t>
+          <t>hannahegraham_</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kyliepollack</t>
+          <t>all.kib</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>keekeevenkatesh</t>
+          <t>marshiaahsan</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>maame.wednesday</t>
+          <t>kelleralden</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>simpandeyy</t>
+          <t>trich05</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>_annacarpenter</t>
+          <t>maxli_maxli</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>duckyipad</t>
+          <t>caroline.gallagher</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>whynoteverything28</t>
+          <t>evie.aldridge</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>kavin.s23</t>
+          <t>brockbenton99</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zhaow04</t>
+          <t>alanahorne_</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bellarontiris</t>
+          <t>lukemalloryy</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>_ava_littman</t>
+          <t>jt_tolsma2</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>rjleticinha_</t>
+          <t>leamastorakis</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>leo.m.hu</t>
+          <t>lindseywang17</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kellydotnet</t>
+          <t>haley.jans</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>jojohongg</t>
+          <t>danielsuh05</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>zackmahmud</t>
+          <t>gab_josephine</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bowenjiang26</t>
+          <t>akshayamohan_</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>rywu05</t>
+          <t>fernando_q7</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>scottgoodove</t>
+          <t>raechel.wu</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>andyhyunko</t>
+          <t>hvnnahw</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mills.howell</t>
+          <t>cami.enez</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>pkotapati57</t>
+          <t>eva_aggarwal</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>laurakammenou</t>
+          <t>anurag_anugu</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>zoe_meadowss</t>
+          <t>jackiepark_</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>yabesraewnetu</t>
+          <t>featuring.fiona</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>chloe.peyton</t>
+          <t>nitinnag05</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>victoriawee</t>
+          <t>jacqueline.dinh</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>markgikas</t>
+          <t>ursulabrownn</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>amareswierc</t>
+          <t>maxhyman12</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>alissawuu</t>
+          <t>jjackjohnston_</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lirockyzhang</t>
+          <t>maame.wednesday</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>edorrestein</t>
+          <t>joshli.n</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>annabelle_dy</t>
+          <t>_gigiquin_</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>lexi.magnano</t>
+          <t>sanjalisharma_</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>caro1inezhang</t>
+          <t>sashanikiforov_</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>lou_dog73</t>
+          <t>lourdes.carolinaa</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>harrickjeffrey</t>
+          <t>joey.b05</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>emma.bbennett</t>
+          <t>gabriella.lozano</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>v.drolet</t>
+          <t>amy.gyang</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>og.demetri.__</t>
+          <t>blakepasse</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>jeffrey.bohrer</t>
+          <t>sophia.saxonhouse</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>katherine.ciro</t>
+          <t>john.gorman21</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>danielmeharii</t>
+          <t>conmsharp</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>pameladavidson4</t>
+          <t>jocnmay</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nguyen.nwhen</t>
+          <t>tting_li_</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>taylor.reaaa</t>
+          <t>josh.rabbani</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>mia.minestrella</t>
+          <t>_chloe.woods_</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>gabecooper_11</t>
+          <t>edenraviv_</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>whaleprinter</t>
+          <t>dukedormdecor</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>elle.balle</t>
+          <t>vedantcpatel</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>jackcarreyr</t>
+          <t>navti22</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>marlee.bland</t>
+          <t>lil_weisz</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>alikalo05</t>
+          <t>meredith.beatty</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>rsnyper</t>
+          <t>clara.belle48</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>cassidy_bruno</t>
+          <t>sanjana.sank</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>olimcco25</t>
+          <t>jeffrey.bohrer</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>lameesle</t>
+          <t>manny.shetaye</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>jannawaang</t>
+          <t>s.k.y.e._.1</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>emmar_fulton</t>
+          <t>suzy.sicko</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>nicolebeltran.t</t>
+          <t>jayson_tran_</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>_sionchang</t>
+          <t>lily.bucchi</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>zach.gor</t>
+          <t>rachel_tang__</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>gjanish_87</t>
+          <t>victoriawee</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>maderacll</t>
+          <t>_marvt</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>jhesny</t>
+          <t>muskaan_toshniwal</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>graceyabernethy</t>
+          <t>_anniekane</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>_emilyzou</t>
+          <t>ani_lerner</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>jayokoro</t>
+          <t>ezcoolkid</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>iamkingck</t>
+          <t>james_setty_</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>arroheater</t>
+          <t>markgikas</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>wenwenli682</t>
+          <t>am.rita.17</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>kevin_zheng05</t>
+          <t>camron.poe</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>tting_li_</t>
+          <t>sahilp1134</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>jjordan.wood</t>
+          <t>unleashed.kay</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>jjackjohnston_</t>
+          <t>macbrooks113</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>_mxky.laa_</t>
+          <t>mia_kaarls</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>dylanlinton_</t>
+          <t>blakecegelka</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>n._osheroff</t>
+          <t>vickiek.0405</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ryan.yu22</t>
+          <t>leo_xu8</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>meghan.pasala</t>
+          <t>kejriwalarnav</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sasha.rhee</t>
+          <t>christinaazhng</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>nitinnag05</t>
+          <t>arshaanhsayed</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>helloames</t>
+          <t>kevl0215</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>mariaadelaney</t>
+          <t>zimeowth</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>zofia.chmiel</t>
+          <t>ryanponkc</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>low_key_always</t>
+          <t>carol_schwartz</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>maya9.03</t>
+          <t>bethany.akinola</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>nawra.roya</t>
+          <t>madelyn.halll</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>hangila.mariama</t>
+          <t>vanessaaaa.wu</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>scarlettsimnz</t>
+          <t>et_chavis</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>jeetikhurana</t>
+          <t>amandanemshin</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1746,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>dilwegjp</t>
+          <t>luce_weiyh</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1756,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>slammy.jo</t>
+          <t>g_lacount</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1766,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>karismalavana</t>
+          <t>abdisalvo</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1776,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>wanyuzhang_00</t>
+          <t>siddarthdas5</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1786,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>kieraclemens</t>
+          <t>kate.haver</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1796,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>edenraviv_</t>
+          <t>natecroce</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1806,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sophialin1124</t>
+          <t>eli.und3rwood</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1816,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>avantika__chopra</t>
+          <t>laurakammenou</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1826,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>heberford</t>
+          <t>nikkivalenciaa</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1836,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>omar_kjamal</t>
+          <t>zach.gor</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1846,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>susan_chemmanoor</t>
+          <t>william.casas04</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1856,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>aaronwang9599</t>
+          <t>juliaz1798</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1866,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vriddhi.goenka</t>
+          <t>arielashuchman</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1876,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>sharondxng</t>
+          <t>catherinereid8</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1886,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>niltonito</t>
+          <t>whoiskchoi</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1896,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>justinp495</t>
+          <t>liukevinn</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1906,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>jing_jane</t>
+          <t>k_yuan1</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1916,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>asample406</t>
+          <t>ashley.greeno_</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1926,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>anna.brusoe</t>
+          <t>fayeblade762</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1936,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>_bradleyb._</t>
+          <t>jenelle.a.a</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1946,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>s.k.y.e._.1</t>
+          <t>gloomket</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1956,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>salvadorpadillakatz</t>
+          <t>jeffejefehuan</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1966,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>alicesg_</t>
+          <t>conrad__bennett</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1976,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>gonmymind_</t>
+          <t>ziang_gao0520</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1986,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>samu_orellana</t>
+          <t>sarayukodaliiii</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -1996,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>lukemergott</t>
+          <t>tashiel_reid</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2006,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>narayanan.sundaresan23</t>
+          <t>kellydotnet</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2016,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>sbatra1910</t>
+          <t>_hannahjiang</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2026,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>lia_lapidot</t>
+          <t>aronnn.g</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2036,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>avyry</t>
+          <t>alexscanlon3</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2046,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>matias_zac7</t>
+          <t>arroheater</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2056,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>marcus_weiler_</t>
+          <t>citlalirs17</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2066,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ani_lerner</t>
+          <t>allielulov</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2076,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>alvin006</t>
+          <t>charley_nasiedlak</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2086,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>nishkadalal</t>
+          <t>aaditmital</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2096,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>elladora_5</t>
+          <t>pri.ramulu</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2106,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>daniel_kydc</t>
+          <t>marcus_weiler_</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2116,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>karen_aber</t>
+          <t>ninac.alves</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2126,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>alexlong_lax</t>
+          <t>allanbochenek13</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2136,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>neo.best_</t>
+          <t>yuxuanalicechen</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2146,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>williamchen05</t>
+          <t>amyh.ry</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2156,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>navya_kan</t>
+          <t>hopet._</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2166,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>luce_weiyh</t>
+          <t>annikajohnsons</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2176,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>gianna_zheng</t>
+          <t>justinp495</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2186,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>brycie_1021</t>
+          <t>tamish_agarwal</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2196,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>renewwestdurham</t>
+          <t>idalondon_</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2206,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>beyoncedeanda2004</t>
+          <t>cbiswasss</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2216,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>kellydotcom</t>
+          <t>peter.fitz14</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2226,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>_kaylynzhong</t>
+          <t>_mackenziehoey</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2236,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>jack.hirsh</t>
+          <t>ciaran.burr</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2246,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>julia_healey_parera</t>
+          <t>abbas.a.naqvi</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2256,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>kechun_wu</t>
+          <t>arya_.kumar</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2266,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>all.kib</t>
+          <t>alanqiao_</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2276,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>catherinereid8</t>
+          <t>r1chardzhou</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2286,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>katlzhng</t>
+          <t>leonotleon</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2296,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>izzyjia</t>
+          <t>eileeenma</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2306,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>awesomehanlin</t>
+          <t>adam.perez__</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2316,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>hannahrothfeld</t>
+          <t>namitkapoor506</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2326,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>diegoycge</t>
+          <t>guanyi.chen.1257</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2336,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>lil_weisz</t>
+          <t>sophie.kane3</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2346,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>rohil.watwe</t>
+          <t>luca_tricoci</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2356,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>jdonthedon</t>
+          <t>kmao1643</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2366,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>_mackenziehoey</t>
+          <t>jing_jane</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2376,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>kevin.sun.hi</t>
+          <t>aliciaogliari</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2386,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>amranhudda</t>
+          <t>athmika_krishnan_</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2396,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>carol_schwartz</t>
+          <t>katelynsteele8</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2406,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>adityabaliga5</t>
+          <t>sophiashley12</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2416,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>kellyshahu</t>
+          <t>sanchezayssa</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2426,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>msj_will_keep_laughing</t>
+          <t>sophialin1124</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2436,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>mirandali_</t>
+          <t>rosalynnxm</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2446,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>laurelhawkinss</t>
+          <t>imadh_05</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2456,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>arinaggarwal1</t>
+          <t>kirsten_luck1</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2466,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sophie.ciute</t>
+          <t>milliemakk</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2476,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>alilevyyy</t>
+          <t>neelmehra72</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2486,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sashaapolakov</t>
+          <t>aryxn6</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2496,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>albertli93</t>
+          <t>niyathigorantla</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2506,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>lukemalloryy</t>
+          <t>mimisomeg</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2516,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>kiran_m2023</t>
+          <t>caro1inezhang</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2526,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>macbrooks113</t>
+          <t>everianny01</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2536,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>jamessmerritt</t>
+          <t>danielishih</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2546,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>charliemking</t>
+          <t>ernie.hdz</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2566,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ximena__sa</t>
+          <t>luciadefatimagr</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2576,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>paulhletkoo</t>
+          <t>sahana_sreeram</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2586,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>christatwyman</t>
+          <t>isha.omer_</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2596,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>evanbrown829</t>
+          <t>justin_cockerham</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2606,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>totally_not_harris</t>
+          <t>samwerts19</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2616,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>atomiiw</t>
+          <t>lirockyzhang</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2626,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>eve.1ynz</t>
+          <t>anikak__</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2636,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>_gigiquin_</t>
+          <t>lxrochaa</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2646,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>michellehsiung_</t>
+          <t>nicholas.pscu</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2656,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>brady_gouin</t>
+          <t>og.demetri.__</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2666,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>jphyun2019</t>
+          <t>_sionchang</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2676,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ariona_millerr</t>
+          <t>leia.namgung</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2686,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>heeyitszey</t>
+          <t>_deldesastro</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2696,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>carls.elyse</t>
+          <t>olly._y</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2706,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ella_wanqianq</t>
+          <t>rohil.watwe</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2716,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>monica.rashkov</t>
+          <t>dukeco2025</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2726,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ewan_dignon</t>
+          <t>ehhhhhhhdee</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2736,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>aaron.andino</t>
+          <t>elladora_5</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2746,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>tallycoulter</t>
+          <t>margaret_berei</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2756,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>nolanzeng</t>
+          <t>sophieendrud</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2766,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>yumimizobuchi</t>
+          <t>keirahonig</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2776,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>raymond_adams27</t>
+          <t>totally_not_harris</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2786,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ameliaskena</t>
+          <t>kechun_wu</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2796,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>dishih.27</t>
+          <t>govindthegoat</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2806,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>maxli_maxli</t>
+          <t>jamesmyae04</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2816,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>blakecegelka</t>
+          <t>sonny.werther</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2826,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ellajohnsss</t>
+          <t>caraeeaton</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2836,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>sahana_sreeram</t>
+          <t>joshuafl1</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2846,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>dana_brooksss</t>
+          <t>hangila.mariama</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2856,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>meera.lokur</t>
+          <t>devica.shah</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2866,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>lkim157</t>
+          <t>julia.williams3</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2876,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>katie.li_</t>
+          <t>rachel.white.10</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2886,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>matt.lutes</t>
+          <t>jeetikhurana</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2896,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>arthur_gwozdz</t>
+          <t>robin.koshelev</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2906,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>_dmarcheli_</t>
+          <t>hallevazquez_</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2916,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>caraeeaton</t>
+          <t>amira_younce05</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2926,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>anikethk705</t>
+          <t>wanyuzhang_00</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2936,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>siddujand</t>
+          <t>shambhavixsinha</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2946,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>nikkinaq</t>
+          <t>sarayoon8</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2956,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>conrad__bennett</t>
+          <t>kaylee.matteis</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2966,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>akshayamohan_</t>
+          <t>w1llsh1</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2976,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>camron.poe</t>
+          <t>nguyen.nwhen</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2986,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>carlyheslop_</t>
+          <t>mik.voinov</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -2996,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>nilay.360</t>
+          <t>angelikaxc__</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3006,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>hvnnahw</t>
+          <t>misterbackes</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3016,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>siddarthdas5</t>
+          <t>tylie.friedland</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3026,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>mishaaganin5</t>
+          <t>atomiiw</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3036,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>brockbenton99</t>
+          <t>bigbenben28</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3046,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>adam.perez__</t>
+          <t>_kaylaliang</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3056,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>evabonde04</t>
+          <t>joierodin</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3066,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>gab_josephine</t>
+          <t>simone.mashaal</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3076,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>stepheneshafer</t>
+          <t>_angelaxiong</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3086,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>kenachugs</t>
+          <t>jameswang868</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3096,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>carlie.scheer</t>
+          <t>helloliane_</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3106,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>meredith.beatty</t>
+          <t>isabel_davis05</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3116,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>carsonisneat</t>
+          <t>islam.tyb</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3126,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>jamie.kurzer</t>
+          <t>sola.corrado</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3136,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>sarah_tandon</t>
+          <t>dalys.ragland</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3146,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>rohiitsuresh</t>
+          <t>gracethrowerr</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3156,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>lillymoellerr</t>
+          <t>lucaslin9359</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3166,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>maellakoffi</t>
+          <t>kevin.sun.hi</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3176,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>monica.shhhh</t>
+          <t>talisigal</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3186,570 +3198,10 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>tatummckinnis</t>
+          <t>mariaadelaney</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>sopheeedav</t>
-        </is>
-      </c>
-      <c r="B278" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>_your_hades</t>
-        </is>
-      </c>
-      <c r="B279" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>pranavvhooda</t>
-        </is>
-      </c>
-      <c r="B280" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>ebulan23</t>
-        </is>
-      </c>
-      <c r="B281" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>ros_seez</t>
-        </is>
-      </c>
-      <c r="B282" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>he.jungle</t>
-        </is>
-      </c>
-      <c r="B283" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>contrapositiveofapanda</t>
-        </is>
-      </c>
-      <c r="B284" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>j_k.o.17</t>
-        </is>
-      </c>
-      <c r="B285" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>evlsrm</t>
-        </is>
-      </c>
-      <c r="B286" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>anika.suman</t>
-        </is>
-      </c>
-      <c r="B287" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>zhariah2004</t>
-        </is>
-      </c>
-      <c r="B288" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>catherine_ramich</t>
-        </is>
-      </c>
-      <c r="B289" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>andrew_myerson</t>
-        </is>
-      </c>
-      <c r="B290" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>they.ad0re.kiki</t>
-        </is>
-      </c>
-      <c r="B291" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>allielulov</t>
-        </is>
-      </c>
-      <c r="B292" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>janetmengg</t>
-        </is>
-      </c>
-      <c r="B293" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>nathangaviser</t>
-        </is>
-      </c>
-      <c r="B294" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>judy_o119</t>
-        </is>
-      </c>
-      <c r="B295" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>mmichaelx_x</t>
-        </is>
-      </c>
-      <c r="B296" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>milliemakk</t>
-        </is>
-      </c>
-      <c r="B297" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>archittamboli</t>
-        </is>
-      </c>
-      <c r="B298" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>farvinakmal</t>
-        </is>
-      </c>
-      <c r="B299" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>anushkakumarr</t>
-        </is>
-      </c>
-      <c r="B300" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>alexscanlon3</t>
-        </is>
-      </c>
-      <c r="B301" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>raechel.wu</t>
-        </is>
-      </c>
-      <c r="B302" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>sofiat.rivera</t>
-        </is>
-      </c>
-      <c r="B303" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>sabo_jack</t>
-        </is>
-      </c>
-      <c r="B304" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>zacharylevy99</t>
-        </is>
-      </c>
-      <c r="B305" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>stephenharris_7</t>
-        </is>
-      </c>
-      <c r="B306" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>rebeccagrace05</t>
-        </is>
-      </c>
-      <c r="B307" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>k_ana122</t>
-        </is>
-      </c>
-      <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>ursulabrownn</t>
-        </is>
-      </c>
-      <c r="B309" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>mia.edim</t>
-        </is>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>fernando_q7</t>
-        </is>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>zheng__lily</t>
-        </is>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>luis.xxpl</t>
-        </is>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>lizzzzzzhy</t>
-        </is>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>caroline.mcl</t>
-        </is>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>certifieddogaty</t>
-        </is>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>yashsingam</t>
-        </is>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>maddiesiebeneck</t>
-        </is>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>sillytilli33</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>croce.christopher</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>sarahjane.schulze</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>pacomiles</t>
-        </is>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>saanvees</t>
-        </is>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>zacmendelsohn</t>
-        </is>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>talisigal</t>
-        </is>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>lisazhaao</t>
-        </is>
-      </c>
-      <c r="B326" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>clara.belle48</t>
-        </is>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>_angelachen__</t>
-        </is>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>guanyi.chen.1257</t>
-        </is>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>ella.jacobs5</t>
-        </is>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>daniel.younn</t>
-        </is>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>marteenasubiaaa</t>
-        </is>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>_isabellaarango</t>
-        </is>
-      </c>
-      <c r="B333" t="b">
         <v>0</v>
       </c>
     </row>
